--- a/Assignment2/Data/HourCoefficients.xlsx
+++ b/Assignment2/Data/HourCoefficients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjribeiro/Documents/courses/AE4423 Airline Planning &amp; Optimisation/2025/Assignment2/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jobru\Documents\TU Delft\MSc AE\Year 1\Courses Q2\APandO\Assignment files\AirlinePlanningAndOptimisation\Assignment2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC96B78-D2A2-924E-9446-950FCDE08914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9564A05A-48F4-497D-81D2-3392116B26D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{D3AE607B-EF5A-D044-8A1B-CFD35765240D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3AE607B-EF5A-D044-8A1B-CFD35765240D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour Coefficients" sheetId="1" r:id="rId1"/>
@@ -487,15 +487,15 @@
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="D3" sqref="D3:AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -526,7 +526,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D2">
         <v>0</v>
       </c>
@@ -600,7 +600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -683,7 +683,7 @@
         <v>6.0919691747511245E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -766,7 +766,7 @@
         <v>5.7304037548504674E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -849,7 +849,7 @@
         <v>4.863221346019192E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -932,7 +932,7 @@
         <v>3.3161718979437968E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>6.298524581007095E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>3.2405305194950364E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>5.034558976847462E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>

--- a/Assignment2/Data/HourCoefficients.xlsx
+++ b/Assignment2/Data/HourCoefficients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjribeiro/Documents/courses/AE4423 Airline Planning &amp; Optimisation/2025/Assignment2/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/rpop_tudelft_nl/Documents/Documents/SVV/AirlinePlanningAndOptimisation/Assignment2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC96B78-D2A2-924E-9446-950FCDE08914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{3CC96B78-D2A2-924E-9446-950FCDE08914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95773535-6BAD-5CFC-980F-D9BD58CB871D}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{D3AE607B-EF5A-D044-8A1B-CFD35765240D}"/>
+    <workbookView xWindow="7452" yWindow="7452" windowWidth="7500" windowHeight="6000" xr2:uid="{D3AE607B-EF5A-D044-8A1B-CFD35765240D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hour Coefficients" sheetId="1" r:id="rId1"/>
@@ -490,12 +490,12 @@
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -526,7 +526,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D2">
         <v>0</v>
       </c>
@@ -600,7 +600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -683,7 +683,7 @@
         <v>6.0919691747511245E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -766,7 +766,7 @@
         <v>5.7304037548504674E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -849,7 +849,7 @@
         <v>4.863221346019192E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -932,7 +932,7 @@
         <v>3.3161718979437968E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>6.298524581007095E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>3.2405305194950364E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>5.034558976847462E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
